--- a/Work-2023.xlsx
+++ b/Work-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHURAJ\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A65CE16E-76A1-4CCC-AE20-181B29C85B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E17CD8-1156-421D-9316-8F9EF1061713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5AED7D37-3335-483F-BA7E-55FE13FAD97F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Complete Case Study(Training)</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Roll-Off-Form</t>
+  </si>
+  <si>
+    <t>Frontend and Backend</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,36 +571,47 @@
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -608,16 +622,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -629,15 +637,17 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{BBB6ED2E-7FFF-4506-938F-B78793B007D0}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{1FFA622D-E253-4966-8D66-625567DF53EA}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{2D2A195F-DE16-4FDD-8F65-B20FA629EFFF}"/>
-    <hyperlink ref="B17" r:id="rId4" xr:uid="{59072E48-CAD5-46CD-98CB-4BCBD587A36E}"/>
-    <hyperlink ref="B18" r:id="rId5" xr:uid="{56D961C3-F2A7-4635-B97B-A9B3E1D3C5C2}"/>
+    <hyperlink ref="B16" r:id="rId4" xr:uid="{59072E48-CAD5-46CD-98CB-4BCBD587A36E}"/>
+    <hyperlink ref="B17" r:id="rId5" xr:uid="{56D961C3-F2A7-4635-B97B-A9B3E1D3C5C2}"/>
     <hyperlink ref="B20" r:id="rId6" xr:uid="{5F3E1F57-848F-4368-AB15-1D54ECB338C9}"/>
-    <hyperlink ref="B24" r:id="rId7" xr:uid="{8C78B6BC-80DC-4624-8CFF-BD5601010541}"/>
+    <hyperlink ref="B21" r:id="rId7" xr:uid="{8C78B6BC-80DC-4624-8CFF-BD5601010541}"/>
     <hyperlink ref="B7" r:id="rId8" xr:uid="{53DAE8AC-2D09-4C0F-82AF-1E33A4231E14}"/>
     <hyperlink ref="B8" r:id="rId9" xr:uid="{2CBA877E-87A8-4B62-AA04-CB9E9F0616BB}"/>
     <hyperlink ref="B11" r:id="rId10" xr:uid="{59E135B5-69F6-46B3-B6BE-F730A3868C25}"/>
+    <hyperlink ref="B14" r:id="rId11" xr:uid="{FE675932-C2F5-4CC2-926E-DE6CF37C5C34}"/>
+    <hyperlink ref="B19" r:id="rId12" xr:uid="{DAA2EC8F-F88C-49B2-A202-CADCB79AF20F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/Work-2023.xlsx
+++ b/Work-2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHURAJ\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHURAJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E17CD8-1156-421D-9316-8F9EF1061713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BC0679-8732-4ACE-9C29-9AD1421EE0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5AED7D37-3335-483F-BA7E-55FE13FAD97F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>Complete Case Study(Training)</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Frontend and Backend</t>
+  </si>
+  <si>
+    <t>Coding Practice</t>
   </si>
 </sst>
 </file>
@@ -483,7 +486,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,6 +629,14 @@
         <v>7</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -646,8 +657,9 @@
     <hyperlink ref="B11" r:id="rId10" xr:uid="{59E135B5-69F6-46B3-B6BE-F730A3868C25}"/>
     <hyperlink ref="B14" r:id="rId11" xr:uid="{FE675932-C2F5-4CC2-926E-DE6CF37C5C34}"/>
     <hyperlink ref="B19" r:id="rId12" xr:uid="{DAA2EC8F-F88C-49B2-A202-CADCB79AF20F}"/>
+    <hyperlink ref="B22" r:id="rId13" xr:uid="{56AB5E3A-40EA-4427-9130-87DFEAA1EB6C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/Work-2023.xlsx
+++ b/Work-2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHURAJ\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHURAJ\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BC0679-8732-4ACE-9C29-9AD1421EE0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B272F0E-A425-4620-8937-00DFFF4CA997}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5AED7D37-3335-483F-BA7E-55FE13FAD97F}"/>
   </bookViews>
@@ -26,9 +26,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Complete Case Study(Training)</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>Frontend and Backend</t>
-  </si>
-  <si>
-    <t>Coding Practice</t>
   </si>
 </sst>
 </file>
@@ -486,7 +483,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -629,14 +626,6 @@
         <v>7</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -657,9 +646,8 @@
     <hyperlink ref="B11" r:id="rId10" xr:uid="{59E135B5-69F6-46B3-B6BE-F730A3868C25}"/>
     <hyperlink ref="B14" r:id="rId11" xr:uid="{FE675932-C2F5-4CC2-926E-DE6CF37C5C34}"/>
     <hyperlink ref="B19" r:id="rId12" xr:uid="{DAA2EC8F-F88C-49B2-A202-CADCB79AF20F}"/>
-    <hyperlink ref="B22" r:id="rId13" xr:uid="{56AB5E3A-40EA-4427-9130-87DFEAA1EB6C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/Work-2023.xlsx
+++ b/Work-2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHURAJ\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHURAJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B272F0E-A425-4620-8937-00DFFF4CA997}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D08A99-68FC-4225-9F08-53C6D02F4F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5AED7D37-3335-483F-BA7E-55FE13FAD97F}"/>
   </bookViews>
@@ -26,9 +26,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Complete Case Study(Training)</t>
   </si>
@@ -99,13 +99,28 @@
   </si>
   <si>
     <t>Frontend and Backend</t>
+  </si>
+  <si>
+    <t>Coding Practice</t>
+  </si>
+  <si>
+    <t>Task by Tejas</t>
+  </si>
+  <si>
+    <t>Azure Migration portal</t>
+  </si>
+  <si>
+    <t>Frontend</t>
+  </si>
+  <si>
+    <t>Codes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +151,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -158,13 +180,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -480,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21271C2-E80C-4F15-826E-048A0549AAF2}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,15 +517,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -510,34 +533,31 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
@@ -545,7 +565,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
@@ -585,37 +605,38 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>8</v>
@@ -623,31 +644,78 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
+      <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{BBB6ED2E-7FFF-4506-938F-B78793B007D0}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{1FFA622D-E253-4966-8D66-625567DF53EA}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{2D2A195F-DE16-4FDD-8F65-B20FA629EFFF}"/>
-    <hyperlink ref="B16" r:id="rId4" xr:uid="{59072E48-CAD5-46CD-98CB-4BCBD587A36E}"/>
-    <hyperlink ref="B17" r:id="rId5" xr:uid="{56D961C3-F2A7-4635-B97B-A9B3E1D3C5C2}"/>
-    <hyperlink ref="B20" r:id="rId6" xr:uid="{5F3E1F57-848F-4368-AB15-1D54ECB338C9}"/>
-    <hyperlink ref="B21" r:id="rId7" xr:uid="{8C78B6BC-80DC-4624-8CFF-BD5601010541}"/>
-    <hyperlink ref="B7" r:id="rId8" xr:uid="{53DAE8AC-2D09-4C0F-82AF-1E33A4231E14}"/>
-    <hyperlink ref="B8" r:id="rId9" xr:uid="{2CBA877E-87A8-4B62-AA04-CB9E9F0616BB}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{BBB6ED2E-7FFF-4506-938F-B78793B007D0}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{1FFA622D-E253-4966-8D66-625567DF53EA}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{2D2A195F-DE16-4FDD-8F65-B20FA629EFFF}"/>
+    <hyperlink ref="B20" r:id="rId4" xr:uid="{59072E48-CAD5-46CD-98CB-4BCBD587A36E}"/>
+    <hyperlink ref="B21" r:id="rId5" xr:uid="{56D961C3-F2A7-4635-B97B-A9B3E1D3C5C2}"/>
+    <hyperlink ref="B24" r:id="rId6" xr:uid="{5F3E1F57-848F-4368-AB15-1D54ECB338C9}"/>
+    <hyperlink ref="B25" r:id="rId7" xr:uid="{8C78B6BC-80DC-4624-8CFF-BD5601010541}"/>
+    <hyperlink ref="B2" r:id="rId8" xr:uid="{53DAE8AC-2D09-4C0F-82AF-1E33A4231E14}"/>
+    <hyperlink ref="B3" r:id="rId9" xr:uid="{2CBA877E-87A8-4B62-AA04-CB9E9F0616BB}"/>
     <hyperlink ref="B11" r:id="rId10" xr:uid="{59E135B5-69F6-46B3-B6BE-F730A3868C25}"/>
     <hyperlink ref="B14" r:id="rId11" xr:uid="{FE675932-C2F5-4CC2-926E-DE6CF37C5C34}"/>
-    <hyperlink ref="B19" r:id="rId12" xr:uid="{DAA2EC8F-F88C-49B2-A202-CADCB79AF20F}"/>
+    <hyperlink ref="B23" r:id="rId12" xr:uid="{DAA2EC8F-F88C-49B2-A202-CADCB79AF20F}"/>
+    <hyperlink ref="B26" r:id="rId13" xr:uid="{56AB5E3A-40EA-4427-9130-87DFEAA1EB6C}"/>
+    <hyperlink ref="B17" r:id="rId14" xr:uid="{20C3337F-116D-44C8-ADBA-FCC6B74BFD1B}"/>
+    <hyperlink ref="B18" r:id="rId15" xr:uid="{73FB5325-D768-47FA-9A07-B350EBDDCF9E}"/>
+    <hyperlink ref="B27" r:id="rId16" xr:uid="{4442B869-EC3C-48D4-947A-0A2CC7B5A80C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>